--- a/api/tests/imports/results/results_import_valid.xlsx
+++ b/api/tests/imports/results/results_import_valid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>00000000-0000-0000-0005-000000000004</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0005-000000000008</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +435,14 @@
         <v>750</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
